--- a/data/trans_bre/P23_10_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-26,11%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>149,32%</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 9,65</t>
+          <t>-14,12; 7,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 0,0</t>
+          <t>-11,85; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 10,37</t>
+          <t>-11,5; 13,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 20,48</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>-13,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>344,26%</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-89,29%</t>
+          <t>117,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-56,4%</t>
+          <t>-89,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-54,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26,62%</t>
         </is>
       </c>
     </row>
@@ -722,30 +768,40 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 12,21</t>
+          <t>-5,24; 9,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,72; -0,22</t>
+          <t>-45,3; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 0,94</t>
+          <t>-8,82; 2,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-2,21; 5,91</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,2</t>
+          <t>-11,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-7,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-75,18%</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-65,29%</t>
+          <t>-66,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-51,22%</t>
+          <t>-45,06%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-70,02%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-39,07%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,38; -4,5</t>
+          <t>-22,54; -2,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 0,81</t>
+          <t>-12,06; 3,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 1,4</t>
+          <t>-17,27; 0,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-92,86; -33,77</t>
+          <t>-13,77; 3,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-96,75; 51,97</t>
+          <t>-88,15; -8,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-88,91; 73,78</t>
+          <t>-85,47; 161,18</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-93,77; 29,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-87,24; 155,86</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,22%</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>-20,18%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27,43%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 11,13</t>
+          <t>-1,83; 16,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 5,16</t>
+          <t>-10,08; 4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 8,69</t>
+          <t>-6,26; 9,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 331,01</t>
+          <t>-5,44; 8,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,24; 176,12</t>
+          <t>-20,11; 525,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 293,45</t>
+          <t>-83,55; 148,19</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-62,63; 367,49</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-78,09; 498,16</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>176,45%</t>
+          <t>-42,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-34,22%</t>
+          <t>111,73%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-30,8%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38,09%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 6,49</t>
+          <t>-10,75; 5,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 12,54</t>
+          <t>-3,59; 16,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 4,03</t>
+          <t>-11,68; 7,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-71,3; 288,91</t>
+          <t>-8,23; 12,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 1085,65</t>
+          <t>-100,0; 277,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,93; 81,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 266,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 504,68</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>160,67%</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,96%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-80,03%</t>
+          <t>-49,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-77,53%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>232,6%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 22,08</t>
+          <t>-5,41; 19,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 3,48</t>
+          <t>-19,76; 8,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,17; -2,71</t>
+          <t>-19,01; 1,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 1337,53</t>
+          <t>-2,76; 19,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,89; 116,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,13</t>
+          <t>-100,0; 329,69</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-38,45%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>-47,2%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-29,5%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50,31%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,47</t>
+          <t>-4,2; 3,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,46</t>
+          <t>-11,02; -0,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,89</t>
+          <t>-6,07; 1,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 60,61</t>
+          <t>-1,29; 5,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-69,75; 13,53</t>
+          <t>-41,29; 71,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-53,26; 21,26</t>
+          <t>-78,22; 0,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-63,89; 27,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 211,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_10_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,44 +627,30 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-26,11%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>62,94%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>1.689030765623745</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.454981502726833</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.154536334602398</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.607039669781762</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2496616340959981</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.6626193141940575</v>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -663,254 +658,138 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; 7,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,5; 13,67</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 20,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.83880338321528</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.79360699243412</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.39000170843195</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.51994796489061</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.6425086157325</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.69971754970638</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-13,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>117,06%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-89,92%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-54,25%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>26,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,24; 9,49</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-45,3; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,82; 2,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 5,91</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.492641714694419</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-12.1976228297897</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.557302613076808</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3059075228063216</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>2.078984881024085</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.8861673753644848</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.5130779785964236</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2596517522441831</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,36</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-66,27%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-45,06%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-70,02%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-39,07%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.441304891951502</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-41.21324196154391</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.437116126033139</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.424938045092203</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,54; -2,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,06; 3,32</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,27; 0,19</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,77; 3,99</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-88,15; -8,33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-85,47; 161,18</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-93,77; 29,73</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-87,24; 155,86</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.0263610106405</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.036287004013057</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.190289991959937</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +797,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,98</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>97,1%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-20,18%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>29,14%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>27,43%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-12.17946592950214</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.613926426830096</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.989657203946681</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.772817935438797</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6724776120799252</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4923746924814291</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6550449425095127</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3306504290931829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 16,31</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,08; 4,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 9,04</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 8,04</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-20,11; 525,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-83,55; 148,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-62,63; 367,49</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-78,09; 498,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-25.53042425869472</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.86855032520273</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.20578060481838</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.33227554515777</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8967037370688662</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8914349985718784</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9317603427038615</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.858132509653517</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.475486657227457</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.022788987955943</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.035946232717678</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.087423889741228</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.1293180707454953</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.255743570295332</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5618343382971328</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.79746564847612</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-42,64%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>111,73%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-30,8%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>38,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,75; 5,67</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,59; 16,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,68; 7,19</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,23; 12,92</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 277,54</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 266,84</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 504,68</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.2816890805417</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.8635207616347631</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.175597028272421</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.215809047345374</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.082103100146935</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1204774668708071</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3767868680867696</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2595966358284552</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,45</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>92,97%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-49,88%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-77,53%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>232,6%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.347122996465884</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.997248942883999</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.372035509906616</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.274601799336547</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1658128600235349</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7982448556116867</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5904977087805477</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7464692417068572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 19,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,76; 8,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-19,01; 1,38</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 19,25</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 329,69</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.52698630617844</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.234925054531995</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.026348596271944</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.752210641623135</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.640243739014263</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.935752406502317</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.955572435263859</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>4.878795237474868</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +997,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-4,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-47,2%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-29,5%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>50,31%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.461412485024228</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.910574913238284</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.959930479372195</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2.972934734429165</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.3611529249746435</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.512950753032726</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.2560801065997947</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.4848542380337139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 3,85</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; -0,33</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,07; 1,27</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 5,62</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 71,92</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-78,22; 0,27</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-63,89; 27,73</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-29,81; 211,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.0455150044495</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.800070274094622</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.32731261386024</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-7.540766349547832</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.060173487582222</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>18.95372503760145</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.704215576883156</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>13.9323921123316</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>3.806636289932521</v>
+      </c>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>3.222535167183932</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>5.345149419296288</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>4.848816473198631</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-4.686098572677393</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-6.444876652347112</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>7.704734529147429</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.945856453101878</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.3655775830056028</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.7835348717349943</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>2.565280638659949</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-5.505671577332014</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-17.84118375737347</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-18.68525746408899</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-3.03316761833897</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>20.86133755409916</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>12.95685865343392</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.190974987199742</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>23.62105071717908</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>3.625607702852109</v>
+      </c>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.523983249694332</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.294726403731906</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.67317230151395</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2.390124320406561</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.06794954272287533</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.4046996661333849</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.2568067028803762</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.6077240937274427</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.861665061986592</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-9.368421634998205</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.521039424580713</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-1.137840286934149</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.3832746587756198</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.7469612442884159</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.6078467312304312</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.275800283784728</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.032223931844403</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4220001238182157</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.478349590433746</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>6.302409747212319</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.9003801508808829</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1372529895076143</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.3601476080557265</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>2.352179839164388</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1279,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
